--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingb\PycharmProjects\videosplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6203F434-5DC2-4371-9868-7EE35BF90FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C9A32-83F2-4475-BC42-A421E9E57375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>in/test.mp4</t>
   </si>
@@ -36,20 +36,32 @@
     <t>Output</t>
   </si>
   <si>
-    <t>N splits</t>
-  </si>
-  <si>
-    <t>out/test2/part{}.mp4</t>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>out/test2/part1.mp4</t>
+  </si>
+  <si>
+    <t>out/test2/part2.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -357,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,7 +381,7 @@
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -379,19 +391,40 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingb\PycharmProjects\videosplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C9A32-83F2-4475-BC42-A421E9E57375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4CD86-EBD8-4952-B604-63B9F2D3C9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,34 +25,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>in/test.mp4</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>out/test2/part1.mp4</t>
-  </si>
-  <si>
-    <t>out/test2/part2.mp4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Имя видоса</t>
+  </si>
+  <si>
+    <t>Продолжительность</t>
+  </si>
+  <si>
+    <t>время начала эксперимента</t>
+  </si>
+  <si>
+    <t>некая точка 0</t>
+  </si>
+  <si>
+    <t>СЦЕНА 1</t>
+  </si>
+  <si>
+    <t>начало</t>
+  </si>
+  <si>
+    <t>конец</t>
+  </si>
+  <si>
+    <t>СЦЕНА 2</t>
+  </si>
+  <si>
+    <t>СЦЕНА 3</t>
+  </si>
+  <si>
+    <t>СЦЕНА 4</t>
+  </si>
+  <si>
+    <t>NM1</t>
+  </si>
+  <si>
+    <t>NM2</t>
+  </si>
+  <si>
+    <t>NM3</t>
+  </si>
+  <si>
+    <t>NM4</t>
+  </si>
+  <si>
+    <t>NM5</t>
+  </si>
+  <si>
+    <t>NM6</t>
+  </si>
+  <si>
+    <t>NM7</t>
+  </si>
+  <si>
+    <t>NM8</t>
+  </si>
+  <si>
+    <t>NM9</t>
+  </si>
+  <si>
+    <t>NM10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +108,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,62 +433,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.73611111111111116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.73611111111111116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.97013888888888899</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.97013888888888899</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>15</v>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.73611111111111105</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingb\PycharmProjects\videosplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1820E-A918-4943-8BE9-197F302CB182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4CD86-EBD8-4952-B604-63B9F2D3C9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>№</t>
   </si>
@@ -54,31 +54,46 @@
     <t>СЦЕНА 2</t>
   </si>
   <si>
-    <t>MAH04760</t>
-  </si>
-  <si>
-    <t>0:22</t>
-  </si>
-  <si>
-    <t>0:40</t>
-  </si>
-  <si>
-    <t>1:00</t>
-  </si>
-  <si>
-    <t>10:45</t>
-  </si>
-  <si>
-    <t>11:00</t>
+    <t>СЦЕНА 3</t>
+  </si>
+  <si>
+    <t>СЦЕНА 4</t>
+  </si>
+  <si>
+    <t>NM1</t>
+  </si>
+  <si>
+    <t>NM2</t>
+  </si>
+  <si>
+    <t>NM3</t>
+  </si>
+  <si>
+    <t>NM4</t>
+  </si>
+  <si>
+    <t>NM5</t>
+  </si>
+  <si>
+    <t>NM6</t>
+  </si>
+  <si>
+    <t>NM7</t>
+  </si>
+  <si>
+    <t>NM8</t>
+  </si>
+  <si>
+    <t>NM9</t>
+  </si>
+  <si>
+    <t>NM10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,23 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,23 +445,30 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -479,45 +493,405 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.73611111111111116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.73611111111111116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.97013888888888899</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.97013888888888899</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
-        <v>2.071759259259259E-2</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.73611111111111105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.73611111111111105</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
